--- a/services/src/main/java/com/nia/services/excel/questions.xlsx
+++ b/services/src/main/java/com/nia/services/excel/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Sep\services\src\main\java\com\nia\services\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\nia_oct\services\src\main\java\com\nia\services\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9F163-9623-4DA3-BC3D-842F3381E7B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4AC3AD-060A-457F-BC24-82A1B41F4BA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3924" xr2:uid="{CCEE5832-B403-481A-9284-E6403490F121}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>opt1</t>
   </si>
@@ -66,17 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,7 +84,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,10 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +449,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +481,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
